--- a/数据整理/stocks/港股/00268-金蝶国际.xlsx
+++ b/数据整理/stocks/港股/00268-金蝶国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3937,4 +3938,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4924</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3911</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2535</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0361</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8245</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7142</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7142</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6187</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00268-金蝶国际.xlsx
+++ b/数据整理/stocks/港股/00268-金蝶国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5438,4 +5439,2036 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>117.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0530</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.6399</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8676</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5935</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5523</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2682</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1739</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9379</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7925</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7805</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7747</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7747</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7747</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4684</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3777</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00268-金蝶国际.xlsx
+++ b/数据整理/stocks/港股/00268-金蝶国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7471,4 +7472,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00268-金蝶国际.xlsx
+++ b/数据整理/stocks/港股/00268-金蝶国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7480,7 +7481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7491,17 +7492,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7511,14 +7532,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.79</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7527,14 +7570,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.32</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>188.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7543,14 +7608,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.14</v>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7559,13 +7646,1633 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8386</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4826</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0249</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0249</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8293</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8270</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5728</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5052</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3717</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>53</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>46.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00268-金蝶国际.xlsx
+++ b/数据整理/stocks/港股/00268-金蝶国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9171,7 +9172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9182,17 +9183,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9202,14 +9223,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.11</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9218,14 +9261,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.79</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9234,14 +9299,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.32</v>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -9250,14 +9337,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44.14</v>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3834</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9266,13 +9375,2105 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5710</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3059</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0106</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9127</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8254</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7457</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>53</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>46.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00268-金蝶国际.xlsx
+++ b/数据整理/stocks/港股/00268-金蝶国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11356,7 +11357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11367,17 +11368,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11387,14 +11408,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.83</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -11403,14 +11446,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.11</v>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -11419,14 +11484,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.79</v>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11435,14 +11522,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.32</v>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0975</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -11451,14 +11560,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>44.14</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -11467,13 +11598,1931 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4694</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0795</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7693</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7511</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4470</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>53</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>46.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00268-金蝶国际.xlsx
+++ b/数据整理/stocks/港股/00268-金蝶国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>31.71</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>39.83</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>49.11</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>56.79</v>
+        <v>49.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>43.32</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>44.14</v>
+        <v>43.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>53</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>46.99</v>
       </c>
     </row>
@@ -600,6 +617,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8301</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5873</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5614</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2631,7 +3920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4815,7 +6104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6505,7 +7794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8537,7 +9826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10037,7 +11326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11461,7 +12750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00268-金蝶国际.xlsx
+++ b/数据整理/stocks/港股/00268-金蝶国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>13.76</v>
+        <v>42.22</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>31.71</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>39.83</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>49.11</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>56.79</v>
+        <v>49.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>43.32</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>44.14</v>
+        <v>43.32</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2100 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>53</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>46.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8424</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>148.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3412</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0914</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2565</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0648</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6395</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5555</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3693</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2468</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2704,3626 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3479</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7724</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4303</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2415</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1539</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商金安成长严选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0908</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0202</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0099</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9529</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7904</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国富沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7550</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7308</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7278</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6818</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6249</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6162</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5893</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安沪港深机会混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012188</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011931</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国富估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014539</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012189</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012111</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>040009</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安稳定收益债券A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>040010</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安稳定收益债券B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016648</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014540</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012112</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>016647</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>016050</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>017451</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国富估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +7595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3920,7 +9627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6104,7 +11811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7794,7 +13501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9826,7 +15533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11326,7 +17033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12748,2074 +18455,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009808</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达创新成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>84.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.3555</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010013</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达信息行业精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>96.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>67.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.8424</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009341</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达均衡成长股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>148.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.4473</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008063</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富大盘核心资产增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>58.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.2215</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004450</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实前沿科技沪港深股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.4584</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009993</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实前沿创新混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>46.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.3412</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010106</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>35.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.0914</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166025</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧远见两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>54.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.8965</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009683</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>27.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.6127</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010180</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏科技龙头两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>29.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.36</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.2565</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006868</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏科技成长股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.83</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.0648</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007349</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>13.53</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.8429</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002332</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7653</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007346</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.7510</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004476</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深领先科技股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>31.43</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>83.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.6757</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005481</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华瑞泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.6395</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005644</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发沪港深行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5980</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5555</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002387</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>13.26</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5397</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3693</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008480</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3462</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002891</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3339</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002892</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3339</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002893</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3339</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004616</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2655</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>12.34</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2468</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001764</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>广发沪港深新机遇股票</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>80.59</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2280</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008657</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2060</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009684</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1879</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004292</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏华沪深港互联网股票</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1797</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1635</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010107</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1406</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>007291</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通双核策略混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1243</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007350</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0891</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008709</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>银河龙头精选股票</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>59.51</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005763</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0681</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>008861</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007101</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中欧远见两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>79.55</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>008481</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007132</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>长城港股通价值精选多策略混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005646</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中海沪港深多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>89.74</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>010093</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>007512</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>